--- a/EveToBMW/Template/电芯导入模板-4110.xlsx
+++ b/EveToBMW/Template/电芯导入模板-4110.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\EveToBMW\EveToBMW\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A7D9FF-BB0C-4096-A0C2-5BDA942B99BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28140" windowHeight="13040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>cell_id</t>
   </si>
@@ -103,9 +109,6 @@
     <t>cell_supplier_diameter_bot_240deg_mm</t>
   </si>
   <si>
-    <t>cell_supplier_total_height_mp29_mm</t>
-  </si>
-  <si>
     <t>cell_supplier_batch_vent_pressure_n</t>
   </si>
   <si>
@@ -119,20 +122,20 @@
   </si>
   <si>
     <t>X001</t>
+  </si>
+  <si>
+    <t>cell_supplier_total_height_mp29_n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -151,6 +154,12 @@
       <sz val="9"/>
       <color indexed="21"/>
       <name val="Consolas"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
@@ -205,23 +214,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -237,19 +231,24 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -548,6 +547,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -580,46 +580,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AE1" sqref="AE1"/>
+      <selection activeCell="AD1" sqref="AD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="21.625" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="21.25" customWidth="1"/>
-    <col min="5" max="5" width="23.25" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
-    <col min="7" max="7" width="26.25" customWidth="1"/>
-    <col min="8" max="8" width="28.25" customWidth="1"/>
-    <col min="9" max="9" width="26.125" customWidth="1"/>
-    <col min="10" max="10" width="28.5" customWidth="1"/>
-    <col min="11" max="11" width="20.25" customWidth="1"/>
-    <col min="12" max="12" width="30.625" customWidth="1"/>
-    <col min="13" max="14" width="34.375" customWidth="1"/>
-    <col min="15" max="15" width="39.375" customWidth="1"/>
-    <col min="16" max="16" width="38.375" customWidth="1"/>
+    <col min="4" max="4" width="21.21875" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="22.33203125" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+    <col min="8" max="8" width="28.21875" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" customWidth="1"/>
+    <col min="10" max="10" width="28.44140625" customWidth="1"/>
+    <col min="11" max="11" width="20.21875" customWidth="1"/>
+    <col min="12" max="12" width="30.6640625" customWidth="1"/>
+    <col min="13" max="14" width="34.33203125" customWidth="1"/>
+    <col min="15" max="15" width="39.33203125" customWidth="1"/>
+    <col min="16" max="16" width="38.33203125" customWidth="1"/>
     <col min="17" max="17" width="37" customWidth="1"/>
-    <col min="18" max="18" width="39.625" customWidth="1"/>
-    <col min="19" max="19" width="38.625" customWidth="1"/>
-    <col min="20" max="20" width="37.25" customWidth="1"/>
-    <col min="21" max="21" width="19.625" customWidth="1"/>
-    <col min="22" max="22" width="18.125" customWidth="1"/>
-    <col min="23" max="24" width="36.5" customWidth="1"/>
-    <col min="25" max="25" width="34.625" customWidth="1"/>
-    <col min="26" max="27" width="36.875" customWidth="1"/>
-    <col min="28" max="29" width="36.5" customWidth="1"/>
-    <col min="30" max="30" width="33.375" customWidth="1"/>
-    <col min="31" max="31" width="32.375" customWidth="1"/>
+    <col min="18" max="18" width="39.6640625" customWidth="1"/>
+    <col min="19" max="19" width="38.6640625" customWidth="1"/>
+    <col min="20" max="20" width="37.21875" customWidth="1"/>
+    <col min="21" max="21" width="19.6640625" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" customWidth="1"/>
+    <col min="23" max="24" width="36.44140625" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="27" width="36.88671875" customWidth="1"/>
+    <col min="28" max="29" width="36.44140625" customWidth="1"/>
+    <col min="30" max="30" width="33.33203125" customWidth="1"/>
+    <col min="31" max="31" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -708,36 +707,36 @@
         <v>28</v>
       </c>
       <c r="AD1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:31" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="D2" s="4">
-        <v>3621.735</v>
+        <v>3621.7350000000001</v>
       </c>
       <c r="E2" s="4">
-        <v>33023.2</v>
+        <v>33023.199999999997</v>
       </c>
       <c r="F2" s="4">
         <v>121626.89</v>
       </c>
       <c r="G2" s="4">
-        <v>1.134</v>
+        <v>1.1339999999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>2.966</v>
+        <v>2.9660000000000002</v>
       </c>
       <c r="I2" s="4">
         <v>350</v>
@@ -746,16 +745,16 @@
         <v>112.5</v>
       </c>
       <c r="K2" s="4">
-        <v>417.933</v>
+        <v>417.93299999999999</v>
       </c>
       <c r="L2" s="5">
         <v>39.6</v>
       </c>
       <c r="M2" s="4">
-        <v>46.219</v>
+        <v>46.219000000000001</v>
       </c>
       <c r="N2" s="4">
-        <v>46.232</v>
+        <v>46.231999999999999</v>
       </c>
       <c r="O2" s="4">
         <v>97.21</v>
@@ -776,10 +775,10 @@
         <v>1.956</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="W2" s="6"/>
       <c r="X2" s="6"/>
@@ -796,8 +795,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/EveToBMW/Template/电芯导入模板-4110.xlsx
+++ b/EveToBMW/Template/电芯导入模板-4110.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Repository\EveToBMW\EveToBMW\Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A7D9FF-BB0C-4096-A0C2-5BDA942B99BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1579698E-FA63-46FE-9552-28800EA411F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28140" windowHeight="13044" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>cell_id</t>
   </si>
@@ -64,15 +64,6 @@
     <t>cell_supplier_diameter_bot_0deg_mm</t>
   </si>
   <si>
-    <t>cell_supplier_total_height_mp29_mean_mm</t>
-  </si>
-  <si>
-    <t>cell_supplier_total_height_mp29_med_mm</t>
-  </si>
-  <si>
-    <t>cell_supplier_total_height_mp29_std_mm</t>
-  </si>
-  <si>
     <t>cell_supplier_batch_vent_pressure_mean_pa</t>
   </si>
   <si>
@@ -124,7 +115,25 @@
     <t>X001</t>
   </si>
   <si>
-    <t>cell_supplier_total_height_mp29_n</t>
+    <t>cell_supplier_batch_terminal_height_n</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_supplier_resistance_dc_temperature_celsius</t>
+  </si>
+  <si>
+    <t>cell_supplier_resistance_uncompensated_dc_mw</t>
+  </si>
+  <si>
+    <t>cell_supplier_batch_terminal_height_mean_mm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_supplier_batch_terminal_height_med_mm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>cell_supplier_batch_terminal_height_std_mm</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -133,7 +142,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -231,7 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -581,10 +590,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
-      <selection activeCell="AD1" sqref="AD1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -597,28 +606,30 @@
     <col min="6" max="6" width="22.33203125" customWidth="1"/>
     <col min="7" max="7" width="26.21875" customWidth="1"/>
     <col min="8" max="8" width="28.21875" customWidth="1"/>
-    <col min="9" max="9" width="26.109375" customWidth="1"/>
-    <col min="10" max="10" width="28.44140625" customWidth="1"/>
-    <col min="11" max="11" width="20.21875" customWidth="1"/>
-    <col min="12" max="12" width="30.6640625" customWidth="1"/>
-    <col min="13" max="14" width="34.33203125" customWidth="1"/>
-    <col min="15" max="15" width="39.33203125" customWidth="1"/>
-    <col min="16" max="16" width="38.33203125" customWidth="1"/>
-    <col min="17" max="17" width="37" customWidth="1"/>
-    <col min="18" max="18" width="39.6640625" customWidth="1"/>
-    <col min="19" max="19" width="38.6640625" customWidth="1"/>
-    <col min="20" max="20" width="37.21875" customWidth="1"/>
-    <col min="21" max="21" width="19.6640625" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" customWidth="1"/>
-    <col min="23" max="24" width="36.44140625" customWidth="1"/>
-    <col min="25" max="25" width="34.6640625" customWidth="1"/>
-    <col min="26" max="27" width="36.88671875" customWidth="1"/>
-    <col min="28" max="29" width="36.44140625" customWidth="1"/>
-    <col min="30" max="30" width="33.33203125" customWidth="1"/>
-    <col min="31" max="31" width="32.33203125" customWidth="1"/>
+    <col min="9" max="9" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="48.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.109375" customWidth="1"/>
+    <col min="12" max="12" width="28.44140625" customWidth="1"/>
+    <col min="13" max="13" width="20.21875" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
+    <col min="15" max="16" width="34.33203125" customWidth="1"/>
+    <col min="17" max="17" width="47.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="46.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="44.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.6640625" customWidth="1"/>
+    <col min="21" max="21" width="38.6640625" customWidth="1"/>
+    <col min="22" max="22" width="37.21875" customWidth="1"/>
+    <col min="23" max="23" width="19.6640625" customWidth="1"/>
+    <col min="24" max="24" width="18.109375" customWidth="1"/>
+    <col min="25" max="26" width="36.44140625" customWidth="1"/>
+    <col min="27" max="27" width="34.6640625" customWidth="1"/>
+    <col min="28" max="29" width="36.88671875" customWidth="1"/>
+    <col min="30" max="31" width="36.44140625" customWidth="1"/>
+    <col min="32" max="32" width="37.77734375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -644,84 +655,90 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:33" ht="24" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="24" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D2" s="4">
         <v>3621.7350000000001</v>
@@ -739,58 +756,64 @@
         <v>2.9660000000000002</v>
       </c>
       <c r="I2" s="4">
+        <v>24.26</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2.6859999999999999</v>
+      </c>
+      <c r="K2" s="4">
         <v>350</v>
       </c>
-      <c r="J2" s="5">
+      <c r="L2" s="5">
         <v>112.5</v>
       </c>
-      <c r="K2" s="4">
+      <c r="M2" s="4">
         <v>417.93299999999999</v>
       </c>
-      <c r="L2" s="5">
+      <c r="N2" s="5">
         <v>39.6</v>
       </c>
-      <c r="M2" s="4">
+      <c r="O2" s="4">
         <v>46.219000000000001</v>
       </c>
-      <c r="N2" s="4">
+      <c r="P2" s="4">
         <v>46.231999999999999</v>
       </c>
-      <c r="O2" s="4">
+      <c r="Q2" s="4">
+        <v>2.194</v>
+      </c>
+      <c r="R2" s="4">
         <v>97.21</v>
       </c>
-      <c r="P2" s="4">
+      <c r="S2" s="4">
         <v>97.21</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>97.21</v>
-      </c>
-      <c r="R2" s="4">
-        <v>1.956</v>
-      </c>
-      <c r="S2" s="4">
-        <v>1.956</v>
       </c>
       <c r="T2" s="4">
         <v>1.956</v>
       </c>
-      <c r="U2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
+      <c r="U2" s="4">
+        <v>1.956</v>
+      </c>
+      <c r="V2" s="4">
+        <v>1.956</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="Y2" s="6"/>
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
       <c r="AB2" s="6"/>
       <c r="AC2" s="6"/>
-      <c r="AD2" s="6">
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6">
         <v>1</v>
       </c>
-      <c r="AE2" s="6">
+      <c r="AG2" s="6">
         <v>1</v>
       </c>
     </row>
